--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT164-001 - Akuntansi - Transaksi - EJT - Cek Jurnal Settlement Transaksi Klaim Kolektif.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT164-001 - Akuntansi - Transaksi - EJT - Cek Jurnal Settlement Transaksi Klaim Kolektif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692E1191-CA49-4F1B-AE34-D35DBB3540B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1659947-8C6F-4A4C-8FCE-E94C03DBB198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
